--- a/questions_excel/questions_modele.xlsx
+++ b/questions_excel/questions_modele.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Formation3\Desktop\Application Quiz\questions_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Formation3\Documents\GitHub\application-quiz\questions_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C2B2CC-919A-4512-A4D9-B1224532C34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1574F36-3D26-4E6A-BD29-54EB131CB33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="11400" xr2:uid="{03FC0476-871D-4E56-A568-9496657F4E17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" xr2:uid="{03FC0476-871D-4E56-A568-9496657F4E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Type</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>'L'Oiseau et l'Enfant' est une chanson interprétée par Marie Myriam, gagnante de l'Eurovision 1977 pour la France.</t>
-  </si>
-  <si>
-    <t>Durée_image_mémo</t>
   </si>
   <si>
     <t>Jacques Chirac, Emmanuel Macron, Valéry Giscard d'Estaing, François Hollande</t>
@@ -488,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3A5C37-EA96-453A-B76A-3A136F9E7BAE}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,11 +519,9 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -536,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -550,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -558,39 +553,39 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -598,19 +593,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -621,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
